--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1435.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1435.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.844771322915626</v>
+        <v>1.070706844329834</v>
       </c>
       <c r="B1">
-        <v>1.964150327859803</v>
+        <v>3.986205816268921</v>
       </c>
       <c r="C1">
-        <v>2.213920851531203</v>
+        <v>5.695708274841309</v>
       </c>
       <c r="D1">
-        <v>3.444605703910449</v>
+        <v>1.601129651069641</v>
       </c>
       <c r="E1">
-        <v>1.487399121034332</v>
+        <v>0.9609283804893494</v>
       </c>
     </row>
   </sheetData>
